--- a/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
+++ b/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BFD775-8447-487F-B62F-29E2A2D5889E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FEFD9C-DF6F-4ADB-B9D2-5222E8029B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="11" r:id="rId2"/>
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -98,6 +99,15 @@
   </si>
   <si>
     <t>NGC-3478/T2285/T2330</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>Fire Brigade Panel - LocalIO</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2650/T2660</t>
   </si>
 </sst>
 </file>
@@ -638,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B44514F-4CC4-48ED-BF22-A9302AF78CC7}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -756,7 +766,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,4 +875,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4666921D-20F7-4DF3-885E-B28871DCDD33}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
+++ b/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FEFD9C-DF6F-4ADB-B9D2-5222E8029B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A61B1F5-E9C4-4437-9F73-CAB53379FFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="11" r:id="rId2"/>
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
     <sheet name="Swiss" sheetId="12" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -108,6 +109,12 @@
   </si>
   <si>
     <t>NGC-3476/T2650/T2660</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2433/T2466</t>
   </si>
 </sst>
 </file>
@@ -532,7 +539,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4666921D-20F7-4DF3-885E-B28871DCDD33}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -981,4 +988,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8339251-1090-4CE9-B912-AD4EB79160B0}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
+++ b/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A61B1F5-E9C4-4437-9F73-CAB53379FFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1E3387-D8CE-4D2E-AFF8-BC612C77A0E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
     <sheet name="Swiss" sheetId="12" r:id="rId4"/>
     <sheet name="Portugal" sheetId="14" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -115,6 +116,12 @@
   </si>
   <si>
     <t>NGC-3479/T2433/T2466</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3175/T1827</t>
   </si>
 </sst>
 </file>
@@ -994,6 +1001,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8339251-1090-4CE9-B912-AD4EB79160B0}">
   <dimension ref="A1:D14"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D55805-AA53-4639-8187-33906AA0CA33}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1019,14 +1143,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1036,19 +1160,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
+++ b/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1E3387-D8CE-4D2E-AFF8-BC612C77A0E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FF6015-4F57-44F9-B65C-5CBD1DF76754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="12" r:id="rId4"/>
     <sheet name="Portugal" sheetId="14" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="15" r:id="rId6"/>
+    <sheet name="Italy" sheetId="16" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -122,6 +123,12 @@
   </si>
   <si>
     <t>NGC-2930/T3175/T1827</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2222/T2451</t>
   </si>
 </sst>
 </file>
@@ -1118,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D55805-AA53-4639-8187-33906AA0CA33}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,4 +1236,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EEBBF9-A001-4704-AEF0-91633C1E4D79}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
+++ b/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FF6015-4F57-44F9-B65C-5CBD1DF76754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D6565C-7356-4743-B2F8-3AA7792A0540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="14" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="15" r:id="rId6"/>
     <sheet name="Italy" sheetId="16" r:id="rId7"/>
+    <sheet name="Spain" sheetId="17" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -129,6 +130,12 @@
   </si>
   <si>
     <t>NGC-3145/T2222/T2451</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2061/T2049</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EEBBF9-A001-4704-AEF0-91633C1E4D79}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,4 +1345,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDDA183-D59A-4E88-BB67-CC1CE11999B9}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
+++ b/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D6565C-7356-4743-B2F8-3AA7792A0540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F87195-DE1C-4004-9C77-B2E8B6F77F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="15" r:id="rId6"/>
     <sheet name="Italy" sheetId="16" r:id="rId7"/>
     <sheet name="Spain" sheetId="17" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -136,6 +137,12 @@
   </si>
   <si>
     <t>NGC-3103/T2061/T2049</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3322/T3308</t>
   </si>
 </sst>
 </file>
@@ -1351,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDDA183-D59A-4E88-BB67-CC1CE11999B9}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,4 +1454,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D110A82D-B2DB-4FA0-B6CB-ACC8FFE0713B}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
+++ b/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F87195-DE1C-4004-9C77-B2E8B6F77F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A6255F-D612-4210-9E6D-47963C40540B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="16" r:id="rId7"/>
     <sheet name="Spain" sheetId="17" r:id="rId8"/>
     <sheet name="Turkey" sheetId="18" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="19" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -143,6 +144,12 @@
   </si>
   <si>
     <t>NGC-3191/T3322/T3308</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2482</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -570,15 +577,15 @@
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -586,7 +593,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,7 +605,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -608,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -620,52 +627,153 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15FF18-18C3-4B0A-9696-E894B8BFBC85}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -687,15 +795,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -703,7 +811,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -715,7 +823,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -725,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -737,51 +845,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -804,14 +912,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="41.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -819,7 +927,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -831,7 +939,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,7 +949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,51 +961,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -920,14 +1028,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="41.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -935,7 +1043,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -947,7 +1055,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -957,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -969,41 +1077,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1026,15 +1134,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.36328125" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1150,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1054,7 +1162,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1064,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1076,51 +1184,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1143,15 +1251,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.36328125" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1159,7 +1267,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1171,7 +1279,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1181,7 +1289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1193,51 +1301,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1260,15 +1368,15 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.36328125" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1276,7 +1384,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1288,7 +1396,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1298,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1310,36 +1418,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1362,15 +1470,15 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1378,7 +1486,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1390,7 +1498,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1412,36 +1520,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1460,18 +1568,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D110A82D-B2DB-4FA0-B6CB-ACC8FFE0713B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1479,7 +1587,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1491,7 +1599,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +1609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1513,36 +1621,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
+++ b/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A6255F-D612-4210-9E6D-47963C40540B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37953940-AB39-4F2A-BD78-21B990FCFF77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="17" r:id="rId8"/>
     <sheet name="Turkey" sheetId="18" r:id="rId9"/>
     <sheet name="Croatia" sheetId="19" r:id="rId10"/>
+    <sheet name="Greece" sheetId="20" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="38">
   <si>
     <t>Wg</t>
   </si>
@@ -150,6 +151,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3203/3186</t>
   </si>
 </sst>
 </file>
@@ -577,15 +584,15 @@
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -593,7 +600,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -605,7 +612,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -615,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -627,51 +634,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -690,18 +697,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15FF18-18C3-4B0A-9696-E894B8BFBC85}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -709,7 +716,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -721,7 +728,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -731,7 +738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -743,36 +750,137 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08DFF22-4D28-4521-A035-8A9828E549FC}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -795,15 +903,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -811,7 +919,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -823,7 +931,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -833,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,51 +953,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -912,14 +1020,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -927,7 +1035,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -939,7 +1047,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -949,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,51 +1069,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1028,14 +1136,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
-    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1151,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1163,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1065,7 +1173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1077,41 +1185,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1134,15 +1242,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.36328125" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1150,7 +1258,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1270,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1172,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1184,51 +1292,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1251,15 +1359,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.36328125" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1267,7 +1375,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1279,7 +1387,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1301,51 +1409,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1368,15 +1476,15 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.36328125" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1384,7 +1492,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1504,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1406,7 +1514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1418,36 +1526,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1470,15 +1578,15 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.08984375" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1486,7 +1594,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1606,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1508,7 +1616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1520,36 +1628,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1572,14 +1680,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1587,7 +1695,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1599,7 +1707,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1621,36 +1729,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
+++ b/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37953940-AB39-4F2A-BD78-21B990FCFF77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E61FACD-ED2F-4399-AA58-9DEB3256AFF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="18" r:id="rId9"/>
     <sheet name="Croatia" sheetId="19" r:id="rId10"/>
     <sheet name="Greece" sheetId="20" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="21" r:id="rId12"/>
+    <sheet name="Austria" sheetId="22" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="23" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="46">
   <si>
     <t>Wg</t>
   </si>
@@ -157,6 +160,30 @@
   </si>
   <si>
     <t>NGC-4119/T3203/3186</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2196</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>Multichannel Transmission Unit</t>
+  </si>
+  <si>
+    <t>Transmission Unit and Keysafe</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2313</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2196</t>
   </si>
 </sst>
 </file>
@@ -798,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08DFF22-4D28-4521-A035-8A9828E549FC}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -845,6 +872,332 @@
       </c>
       <c r="B4" t="s">
         <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238325B4-EA66-46A3-B052-93E1D253E9CD}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE49AA71-5541-494E-890B-89408B789BA3}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811EF576-DF97-4370-B9F4-C7BAAC6C7C36}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
+++ b/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E61FACD-ED2F-4399-AA58-9DEB3256AFF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2498F-11EB-4079-A956-E46C76C51B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="21" r:id="rId12"/>
     <sheet name="Austria" sheetId="22" r:id="rId13"/>
     <sheet name="Denmark" sheetId="23" r:id="rId14"/>
+    <sheet name="Russia" sheetId="25" r:id="rId15"/>
+    <sheet name="Finland" sheetId="26" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="27" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="52">
   <si>
     <t>Wg</t>
   </si>
@@ -184,6 +187,24 @@
   </si>
   <si>
     <t>NGC-2913/T2196</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2908/T2922</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2885/T2954</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2977</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE49AA71-5541-494E-890B-89408B789BA3}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1248,6 +1269,309 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FE4673-1266-433D-BBBB-58F84DFE14F1}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDFC249-0CF1-497E-A2C2-D358825CF19C}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC8C475-F22F-4A70-9275-A3D3A09914C4}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B44514F-4CC4-48ED-BF22-A9302AF78CC7}">
   <dimension ref="A1:D14"/>

--- a/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
+++ b/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2498F-11EB-4079-A956-E46C76C51B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8216E6-5543-49B6-8674-D319045ED9EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="25" r:id="rId15"/>
     <sheet name="Finland" sheetId="26" r:id="rId16"/>
     <sheet name="Hungary" sheetId="27" r:id="rId17"/>
+    <sheet name="Norway" sheetId="28" r:id="rId18"/>
+    <sheet name="Poland" sheetId="29" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="56">
   <si>
     <t>Wg</t>
   </si>
@@ -205,6 +207,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3083/T3069</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3035/T3118</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC8C475-F22F-4A70-9275-A3D3A09914C4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1529,6 +1543,208 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805DC8B5-A5D9-4D8B-8C97-8CAFAC0B0CF3}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA27E04-13FB-4574-B187-D5570045AB27}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
+++ b/Test Data/Gallery_AttachedFunctionality_FIM_Node.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8216E6-5543-49B6-8674-D319045ED9EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05770D9E-D66B-4448-A6D6-AB106CF224AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="27" r:id="rId17"/>
     <sheet name="Norway" sheetId="28" r:id="rId18"/>
     <sheet name="Poland" sheetId="29" r:id="rId19"/>
+    <sheet name="UK" sheetId="30" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="58">
   <si>
     <t>Wg</t>
   </si>
@@ -219,6 +220,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3363/T3354</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805DC8B5-A5D9-4D8B-8C97-8CAFAC0B0CF3}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1905,6 +1912,107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9515BAD4-E4E5-4151-A6DA-BFB4C9A89044}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721F631-0412-46FD-91E9-9CC64B2F261B}">
   <dimension ref="A1:D14"/>
